--- a/biology/Médecine/Jules_Cloquet/Jules_Cloquet.xlsx
+++ b/biology/Médecine/Jules_Cloquet/Jules_Cloquet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Germain Jules Cloquet, né le 18 décembre 1790 et mort le 23 février 1883 à Paris, est un anatomiste et chirurgien français.
 </t>
@@ -511,12 +523,14 @@
           <t>Aperçu biographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jules Cloquet est le fils du dessinateur Jean-Baptiste Cloquet et de Claude Lajude[1]. Comme son frère aîné Hippolyte et sa sœur Lise, il est d'abord formé au dessin par son père au collège Saint-Barbe à Paris, mais les deux frères choisissent tous les deux de faire des études de médecine [2], peut-être à cause des liens d'amitié unissant leur père à Pierre Bretonneau [3].
-Travailleur infatigable, bon dessinateur et anatomiste reconnu par ses pairs, il décrit, dessine et publie des centaines d'éléments d'anatomie normale et pathologique[4].
-Il s'intéresse à l'acupuncture qu'il applique à l'hôpital Saint-Louis[5] et à laquelle il consacre un traité[4]. En 1829, il effectue l'ablation d'une tumeur sous sommeil magnétique au cours de laquelle la patiente ne manifeste aucun signe de douleur mais Dominique-Jean Larrey « regrette vivement que son honorable confrère ait pu croire en l'influence magnétique et se soit laissé induire en erreur par de pareilles jongleries. »[6]
-Il est l'un des médecins personnels du général Lafayette. Il meurt le 23 février 1883 à son domicile dans le 8e arrondissement de Paris[7]. À sa mort, il laisse une œuvre considérable concernant l'anatomie.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jules Cloquet est le fils du dessinateur Jean-Baptiste Cloquet et de Claude Lajude. Comme son frère aîné Hippolyte et sa sœur Lise, il est d'abord formé au dessin par son père au collège Saint-Barbe à Paris, mais les deux frères choisissent tous les deux de faire des études de médecine , peut-être à cause des liens d'amitié unissant leur père à Pierre Bretonneau .
+Travailleur infatigable, bon dessinateur et anatomiste reconnu par ses pairs, il décrit, dessine et publie des centaines d'éléments d'anatomie normale et pathologique.
+Il s'intéresse à l'acupuncture qu'il applique à l'hôpital Saint-Louis et à laquelle il consacre un traité. En 1829, il effectue l'ablation d'une tumeur sous sommeil magnétique au cours de laquelle la patiente ne manifeste aucun signe de douleur mais Dominique-Jean Larrey « regrette vivement que son honorable confrère ait pu croire en l'influence magnétique et se soit laissé induire en erreur par de pareilles jongleries. »
+Il est l'un des médecins personnels du général Lafayette. Il meurt le 23 février 1883 à son domicile dans le 8e arrondissement de Paris. À sa mort, il laisse une œuvre considérable concernant l'anatomie.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Œuvres et publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>De la squelétopée ou de la préparation des os, etc., Paris, 1815.
 Recherches anatomiques sur les hernies de l’abdomen, Paris, Méquignon-Marvis, 1817.
@@ -554,7 +570,7 @@
 Recherches sur les causes et l’anatomie des hernies abdominales, Paris, Méquignon-Marvis, 1819.
 De la squelétopée et recherches sur les causes et l'anatomie des hernies abdominales, Paris 1819.
 « De l’influence des efforts sur les organes renfermés dans la cavité thoracique », in: Nouveau Journal de médecine, T. 6., Saint-Louis, 1819.
-Anatomie de l’homme ou description et figures lithographiées de toutes les parties de corps humain, 5 volumes, Paris, 1821-1831[8].
+Anatomie de l’homme ou description et figures lithographiées de toutes les parties de corps humain, 5 volumes, Paris, 1821-1831.
 Manuel d’anatomie descriptive du corps humain, 1825-1835. Lire en ligne.
 Mémoire sur les calculs urinaires, 1822.
 Pathologie chirurgicale. Plan et méthode qu’il convient de suivre dans l’enseignement de cette science, 1831.
@@ -590,9 +606,11 @@
           <t>Éponymie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Canal de Cloquet[9]: canal hyaloïdien joignant la papille optique au pôle supérieur du cristallin contenant les reliquats embryologiques de l'artère hyaloïde[10].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Canal de Cloquet: canal hyaloïdien joignant la papille optique au pôle supérieur du cristallin contenant les reliquats embryologiques de l'artère hyaloïde.
 Ganglion de Cloquet (ou de Rosenmüller)
 Technique de Bilhaut-Cloquet</t>
         </is>
